--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_15_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3351074.707665824</v>
+        <v>3348781.112209231</v>
       </c>
     </row>
     <row r="7">
@@ -659,13 +659,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247047</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>336.0721595917717</v>
+        <v>105.263641685088</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>211.5869843639669</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>15.52257672202834</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>50.10896315666636</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>169.927021415373</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>69.46007239278468</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>9.562013214737267</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>371.2991318312825</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>170.7304930065917</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4.043187116398963</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>241.1325567395864</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,16 +1585,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>209.8270610998449</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893612</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>40.1538165833283</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2011,7 +2011,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>172.3645574474254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.01576915440816</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>39.9900098519203</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>78.34975387299224</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>141.383131826302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,16 +3004,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>219.4517041866519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3199,10 +3199,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>186.7624964458364</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>137.9385224935183</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3658,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,10 +3673,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,10 +3718,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>40.96105405076471</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,13 +3958,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>115.6949510903007</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>210.6850032871181</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.246750862032</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C2" t="n">
-        <v>880.2842339216199</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D2" t="n">
-        <v>522.0185353148695</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1635.846590926153</v>
+        <v>1185.154965389927</v>
       </c>
       <c r="Y2" t="n">
-        <v>1635.846590926153</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4398,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1352.031492328576</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.8214259065182</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>515.8852429786114</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>515.8852429786114</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1133.603555948066</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1133.603555948066</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>905.6140050500484</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>684.8214259065182</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1257.755181644084</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>888.7926647036722</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="E5" t="n">
-        <v>584.6815723082752</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>577.7360715590718</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4589,13 +4589,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
         <v>2755.806928794324</v>
@@ -4604,13 +4604,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X5" t="n">
         <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4662,10 +4662,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>402.9356658273861</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>233.9994828994791</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1215.080582403683</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1215.080582403683</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X7" t="n">
-        <v>1215.080582403683</v>
+        <v>584.5841306576258</v>
       </c>
       <c r="Y7" t="n">
-        <v>994.2880032601528</v>
+        <v>584.5841306576258</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.53911114974</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C8" t="n">
-        <v>905.5765942093283</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D8" t="n">
-        <v>905.5765942093283</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>578.5476590249492</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,10 +4802,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213862</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>684.4520072430315</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C10" t="n">
-        <v>515.5158243151246</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>365.3991849027889</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>217.4860913203958</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
-        <v>70.5961438224854</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>70.5961438224854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>70.5961438224854</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="11">
@@ -5039,13 +5039,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,7 +5057,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718727</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>784.5811134804959</v>
+        <v>641.8461362382113</v>
       </c>
       <c r="C13" t="n">
-        <v>615.644930552589</v>
+        <v>472.9099533103044</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578602</v>
+        <v>322.7933138979687</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1476.439327491226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.022157454266</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>966.2295783107356</v>
+        <v>823.4946010684511</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5273,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5291,10 +5291,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
         <v>408.925855915485</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>429.5088224239596</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1802.364528928006</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2354.274259167293</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.5348780504994</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.067131165134</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1682.382642959247</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1392.965472922287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1164.975922024269</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>944.1833428807391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>175.8744207939072</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>175.8744207939072</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6482,31 +6482,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L30" t="n">
-        <v>949.9304447718133</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>614.6217844681063</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>614.6217844681063</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6895,13 +6895,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1245.052379339893</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>1017.062828441876</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>796.270249298346</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,10 +6935,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1091.10905366816</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>922.1728707402528</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>772.0562313279171</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>624.143137745524</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1272.757518498399</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7403,10 +7403,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>800.6374272687975</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>631.7012443408906</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.2858920990373</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.28814409505</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>931.4710609784063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>129.7511347056857</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>138.9393975111051</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,16 +23473,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>42.31058222398309</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431587</v>
       </c>
     </row>
     <row r="14">
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9838267404997</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>246.1944645373239</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>147.3599015160449</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>145.139866510289</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,16 +24892,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>6.257951202385243</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>99.76050189075457</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>7.482525529412982</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25372,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25546,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25606,10 +25606,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>211.1765892730633</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,13 +25846,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.889702261794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>15.02465210191909</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>695223.7692116902</v>
+        <v>695223.7692116901</v>
       </c>
     </row>
     <row r="8">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>695223.7692116901</v>
+        <v>695223.7692116899</v>
       </c>
     </row>
     <row r="15">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>738937.5928778545</v>
+        <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778554</v>
+        <v>738937.5928778552</v>
       </c>
       <c r="E2" t="n">
-        <v>726431.9397210053</v>
+        <v>726431.9397210055</v>
       </c>
       <c r="F2" t="n">
-        <v>726431.9397210052</v>
+        <v>726431.939721005</v>
       </c>
       <c r="G2" t="n">
         <v>726431.9397210052</v>
@@ -26332,28 +26332,28 @@
         <v>726431.9397210054</v>
       </c>
       <c r="I2" t="n">
+        <v>726431.9397210053</v>
+      </c>
+      <c r="J2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="K2" t="n">
+        <v>726431.9397210054</v>
+      </c>
+      <c r="L2" t="n">
+        <v>726431.9397210052</v>
+      </c>
+      <c r="M2" t="n">
         <v>726431.9397210055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>726431.9397210052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>726431.9397210053</v>
-      </c>
-      <c r="M2" t="n">
-        <v>726431.9397210053</v>
       </c>
       <c r="N2" t="n">
         <v>726431.9397210053</v>
       </c>
       <c r="O2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210054</v>
       </c>
       <c r="P2" t="n">
-        <v>726431.9397210055</v>
+        <v>726431.9397210053</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121056</v>
+        <v>203438.7416121057</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.461807355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605448</v>
+        <v>49110.09270605442</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,31 +26424,31 @@
         <v>89134.1790931202</v>
       </c>
       <c r="E4" t="n">
+        <v>9947.14432176889</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9947.144321768921</v>
+      </c>
+      <c r="H4" t="n">
         <v>9947.144321768897</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9947.144321768912</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9947.144321768897</v>
-      </c>
-      <c r="H4" t="n">
-        <v>9947.144321768963</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768916</v>
+        <v>9947.144321768932</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.14432176893</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768932</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="N4" t="n">
         <v>9947.144321768897</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-606682.3735451318</v>
+        <v>-606682.3735451319</v>
       </c>
       <c r="C6" t="n">
-        <v>338430.7316112364</v>
+        <v>338430.7316112363</v>
       </c>
       <c r="D6" t="n">
         <v>541869.4732233417</v>
       </c>
       <c r="E6" t="n">
-        <v>289949.8037679741</v>
+        <v>289915.0658425388</v>
       </c>
       <c r="F6" t="n">
-        <v>615362.2655753292</v>
+        <v>615327.5276498932</v>
       </c>
       <c r="G6" t="n">
-        <v>615362.2655753292</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="H6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="I6" t="n">
-        <v>615362.2655753295</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="J6" t="n">
-        <v>447757.0877653467</v>
+        <v>447722.349839911</v>
       </c>
       <c r="K6" t="n">
-        <v>566252.1728692747</v>
+        <v>566217.4349438393</v>
       </c>
       <c r="L6" t="n">
-        <v>615362.2655753293</v>
+        <v>615327.5276498935</v>
       </c>
       <c r="M6" t="n">
-        <v>530307.2376398174</v>
+        <v>530272.499714382</v>
       </c>
       <c r="N6" t="n">
-        <v>615362.2655753292</v>
+        <v>615327.5276498937</v>
       </c>
       <c r="O6" t="n">
-        <v>615362.2655753297</v>
+        <v>615327.5276498938</v>
       </c>
       <c r="P6" t="n">
-        <v>615362.2655753294</v>
+        <v>615327.5276498937</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26960,17 +26960,17 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757587</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483752</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>278.1987997483754</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
@@ -26993,13 +26993,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>33.65894108669738</v>
+        <v>264.467458993381</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,22 +27585,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>40.55065895986107</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>210.1870786670088</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>332.6248785068142</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>240.9947042380804</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>96.56573586624354</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>242.5756301090907</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10.63123824097926</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>240.1912326468617</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>92.30923329343912</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>45.39044159700464</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110996</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32093,10 +32093,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32330,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>303.7670002884146</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32786,10 +32786,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>207.939011051685</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,31 +33494,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,10 +33746,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>697.0074482175629</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>487.5039436775321</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,22 +34778,22 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>520.9482342985597</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>388.6189266346374</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312254</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35741,10 +35741,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35978,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>163.785226202393</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36434,10 +36434,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>81.10138438501833</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,31 +37142,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,10 +37394,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>565.6657361342296</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>356.1622315941988</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
